--- a/src/main/resources/test_data/a.xlsx
+++ b/src/main/resources/test_data/a.xlsx
@@ -3,26 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GRADUATION-PROJECT\src\main\resources\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DC8FC7-6C8F-4040-BAA5-0C7AE9345A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5876E5-5D1B-419C-A401-B276F8781C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Result" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -48,24 +47,12 @@
     <t>aa</t>
   </si>
   <si>
-    <t>manaaa</t>
-  </si>
-  <si>
-    <t>haaa@gmail.com</t>
-  </si>
-  <si>
     <t>spider</t>
   </si>
   <si>
     <t>eaaaaahe@gmail.com</t>
   </si>
   <si>
-    <t>aquafinaa</t>
-  </si>
-  <si>
-    <t>aaiia@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">tran van a </t>
   </si>
   <si>
@@ -126,44 +113,22 @@
     <t>eaaaa@gmail.com</t>
   </si>
   <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Repass</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create User </t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Create is sucess</t>
-  </si>
-  <si>
-    <t>Passed</t>
+    <t xml:space="preserve"> thang b</t>
+  </si>
+  <si>
+    <t>thangnguyenb@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen </t>
+  </si>
+  <si>
+    <t>guyen@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,14 +418,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -488,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>123456</v>
@@ -505,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>123456</v>
@@ -522,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
@@ -567,14 +532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F55D5A7-53CB-4825-BCC5-E4AF8F27A651}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -588,16 +553,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -605,25 +570,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>123456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>32225356</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,25 +596,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>123456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
         <v>32225356</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -657,25 +622,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>123456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>32225356</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -689,7 +654,7 @@
         <v>123456</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -698,10 +663,10 @@
         <v>32225356</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -713,162 +678,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>